--- a/config/scenario.xlsx
+++ b/config/scenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Dev\VBAUnit\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0C5EC8-C7DB-428E-8A73-7125DF8DA28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC21AC6-BEDD-4DC9-BB6A-2974784F4640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="32085" windowHeight="18465" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GroupA" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -105,6 +105,20 @@
   </si>
   <si>
     <t>module002.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -168,36 +182,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}" name="TestSetTable" displayName="TestSetTable" ref="B2:D4" totalsRowShown="0">
-  <autoFilter ref="B2:D4" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}" name="TestSetTable" displayName="TestSetTable" ref="B2:F4" totalsRowShown="0">
+  <autoFilter ref="B2:F4" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D303C56D-E669-4C41-A7BA-583505401FB7}" name="テストID"/>
     <tableColumn id="2" xr3:uid="{62D3FDE6-BF43-4C23-83B6-71D88DA1C8B5}" name="説明"/>
     <tableColumn id="3" xr3:uid="{99098A63-FAAA-438B-A270-D5A01566D348}" name="モジュール"/>
+    <tableColumn id="4" xr3:uid="{EBD158F3-257B-422C-BB67-1579DC946575}" name="実行"/>
+    <tableColumn id="5" xr3:uid="{DA2792B9-E951-497E-AD9A-4FBC623D42B9}" name="結果"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C7151D0-643E-4DEC-8DA3-A731E03C0080}" name="TestSetTable3" displayName="TestSetTable3" ref="B2:D4" totalsRowShown="0">
-  <autoFilter ref="B2:D4" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C7151D0-643E-4DEC-8DA3-A731E03C0080}" name="TestSetTable3" displayName="TestSetTable3" ref="B2:F4" totalsRowShown="0">
+  <autoFilter ref="B2:F4" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ED95B283-E7DA-41B8-A095-51C492AA2333}" name="テストID"/>
     <tableColumn id="2" xr3:uid="{D390ADB5-A7E7-42E5-BD53-1448A5A6819A}" name="説明"/>
     <tableColumn id="3" xr3:uid="{0C229616-8ED9-4B38-935A-02A6062A82A9}" name="モジュール"/>
+    <tableColumn id="4" xr3:uid="{6D2983BD-AE8F-4B83-9F2E-3EEEEFFCFE38}" name="実行"/>
+    <tableColumn id="5" xr3:uid="{430CC70A-C9A8-4F0B-9D30-DFD6BC544F97}" name="結果"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEF2461-2426-40E1-8B77-88ACD1823D7C}" name="TestSetTable34" displayName="TestSetTable34" ref="B2:D4" totalsRowShown="0">
-  <autoFilter ref="B2:D4" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCEF2461-2426-40E1-8B77-88ACD1823D7C}" name="TestSetTable34" displayName="TestSetTable34" ref="B2:F4" totalsRowShown="0">
+  <autoFilter ref="B2:F4" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3CB66727-250E-4D4A-BE0D-85807A32B240}" name="テストID"/>
     <tableColumn id="2" xr3:uid="{EFAECBE0-5808-47E6-A1CF-CA4EFCDB81B1}" name="説明"/>
     <tableColumn id="3" xr3:uid="{0B6EA27F-1F27-4A09-BFEF-075A7E0DD588}" name="モジュール"/>
+    <tableColumn id="4" xr3:uid="{C5E8CBEF-6BD0-45DE-99FC-87AC442196C9}" name="実行"/>
+    <tableColumn id="5" xr3:uid="{62DDC6FA-ED6A-4336-B751-857EA29C3A97}" name="結果"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -480,7 +500,7 @@
     <col min="4" max="4" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -490,8 +510,14 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -502,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -524,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79EE22E-89AA-4B51-B52A-60BBDCE79E2C}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -538,7 +564,7 @@
     <col min="4" max="4" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -548,8 +574,14 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -560,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -582,7 +614,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13487ED5-56CB-4CE6-A948-25F3479E172D}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +626,7 @@
     <col min="4" max="4" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -604,8 +636,14 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -616,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>14</v>
       </c>
